--- a/data/pca/factorExposure/factorExposure_2009-06-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-06-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01708837933019161</v>
+        <v>0.01676740050979924</v>
       </c>
       <c r="C2">
-        <v>-0.00153286875751026</v>
+        <v>-0.00118000319279791</v>
       </c>
       <c r="D2">
-        <v>0.008653403947160276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.008991461535357013</v>
+      </c>
+      <c r="E2">
+        <v>-0.001663687896119874</v>
+      </c>
+      <c r="F2">
+        <v>0.01211263649030055</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.09075851313470717</v>
+        <v>0.09181535761491363</v>
       </c>
       <c r="C4">
-        <v>-0.01974502841686618</v>
+        <v>-0.01498029718423941</v>
       </c>
       <c r="D4">
-        <v>0.0768618587242465</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08188576774056196</v>
+      </c>
+      <c r="E4">
+        <v>-0.02653972060850487</v>
+      </c>
+      <c r="F4">
+        <v>-0.03137637540130084</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.639555226806918e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-1.579953295490257e-06</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>1.420214974146514e-05</v>
+      </c>
+      <c r="E5">
+        <v>3.72879397596737e-05</v>
+      </c>
+      <c r="F5">
+        <v>9.60536080722401e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1532385119224748</v>
+        <v>0.1617613854462994</v>
       </c>
       <c r="C6">
-        <v>-0.02987136071009659</v>
+        <v>-0.0293195972036953</v>
       </c>
       <c r="D6">
-        <v>-0.03590194572847837</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02635668145933516</v>
+      </c>
+      <c r="E6">
+        <v>-0.01112918799735771</v>
+      </c>
+      <c r="F6">
+        <v>-0.04030266722428442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.0600608075254444</v>
+        <v>0.06237868942756913</v>
       </c>
       <c r="C7">
-        <v>-0.001889196764628702</v>
+        <v>0.00127916501739346</v>
       </c>
       <c r="D7">
-        <v>0.04799496537948558</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05280515924094811</v>
+      </c>
+      <c r="E7">
+        <v>-0.01348172350905284</v>
+      </c>
+      <c r="F7">
+        <v>-0.04941934013935663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06173292188341088</v>
+        <v>0.05720463548678067</v>
       </c>
       <c r="C8">
-        <v>0.01037492969621988</v>
+        <v>0.01223375295411568</v>
       </c>
       <c r="D8">
-        <v>0.02716168144035147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03130774833171973</v>
+      </c>
+      <c r="E8">
+        <v>-0.01772570258180602</v>
+      </c>
+      <c r="F8">
+        <v>0.02696216331115382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.0699518513160436</v>
+        <v>0.07111926760181897</v>
       </c>
       <c r="C9">
-        <v>-0.01570437203702174</v>
+        <v>-0.01061965004332902</v>
       </c>
       <c r="D9">
-        <v>0.0783346735016642</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08468290234688838</v>
+      </c>
+      <c r="E9">
+        <v>-0.02347034118024615</v>
+      </c>
+      <c r="F9">
+        <v>-0.04809479440108023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08464566830860785</v>
+        <v>0.08663952364490049</v>
       </c>
       <c r="C10">
-        <v>-0.0155498380850238</v>
+        <v>-0.0215662913643342</v>
       </c>
       <c r="D10">
-        <v>-0.1674166248084751</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1602014054724792</v>
+      </c>
+      <c r="E10">
+        <v>0.03371719838204677</v>
+      </c>
+      <c r="F10">
+        <v>0.0578718024308847</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09137801674111914</v>
+        <v>0.0879535019549379</v>
       </c>
       <c r="C11">
-        <v>-0.01707625262667663</v>
+        <v>-0.01184774610336442</v>
       </c>
       <c r="D11">
-        <v>0.1098446112391602</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1170129471394013</v>
+      </c>
+      <c r="E11">
+        <v>-0.04795499035962396</v>
+      </c>
+      <c r="F11">
+        <v>-0.02467739250044998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09667218861508824</v>
+        <v>0.09094189983614266</v>
       </c>
       <c r="C12">
-        <v>-0.01527924064762212</v>
+        <v>-0.009261021660058122</v>
       </c>
       <c r="D12">
-        <v>0.1169460644821683</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1316404173334395</v>
+      </c>
+      <c r="E12">
+        <v>-0.04803884458651018</v>
+      </c>
+      <c r="F12">
+        <v>-0.03141264436643009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04433946932475887</v>
+        <v>0.04363760634806985</v>
       </c>
       <c r="C13">
-        <v>-0.006450087849645974</v>
+        <v>-0.002786977197650241</v>
       </c>
       <c r="D13">
-        <v>0.04407260018331678</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05388436036425183</v>
+      </c>
+      <c r="E13">
+        <v>0.0003937688718173333</v>
+      </c>
+      <c r="F13">
+        <v>-0.004715188913026608</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.0194213352891256</v>
+        <v>0.02359336814136474</v>
       </c>
       <c r="C14">
-        <v>-0.0149998659857201</v>
+        <v>-0.01383465813994293</v>
       </c>
       <c r="D14">
-        <v>0.03057650391610537</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03220124965039449</v>
+      </c>
+      <c r="E14">
+        <v>-0.01829096598142366</v>
+      </c>
+      <c r="F14">
+        <v>-0.01161718078277713</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03438286414104764</v>
+        <v>0.03426592515784566</v>
       </c>
       <c r="C15">
-        <v>-0.007525856252041146</v>
+        <v>-0.005591546997933389</v>
       </c>
       <c r="D15">
-        <v>0.04444363823753385</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.0465300464678144</v>
+      </c>
+      <c r="E15">
+        <v>-0.00840873193322466</v>
+      </c>
+      <c r="F15">
+        <v>-0.02927035318295529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07491622805146078</v>
+        <v>0.07276352752477011</v>
       </c>
       <c r="C16">
-        <v>-0.00749818298222983</v>
+        <v>-0.001923177292284157</v>
       </c>
       <c r="D16">
-        <v>0.1143730149034772</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1279381783673313</v>
+      </c>
+      <c r="E16">
+        <v>-0.06215585043937617</v>
+      </c>
+      <c r="F16">
+        <v>-0.02753615721591489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.000733857898072723</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0004237387215184911</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.00218496179039918</v>
+      </c>
+      <c r="E17">
+        <v>-0.001500323539996915</v>
+      </c>
+      <c r="F17">
+        <v>0.002631745133123558</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.02339474802152198</v>
+        <v>0.04101287773498788</v>
       </c>
       <c r="C18">
-        <v>0.002360870645494428</v>
+        <v>0.002384294102273977</v>
       </c>
       <c r="D18">
-        <v>0.02397118232170345</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01567020172090726</v>
+      </c>
+      <c r="E18">
+        <v>0.005373125009894219</v>
+      </c>
+      <c r="F18">
+        <v>0.009746049792620261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06355427069076315</v>
+        <v>0.06228068149953849</v>
       </c>
       <c r="C20">
-        <v>-0.005213872887138594</v>
+        <v>-0.001272777607246223</v>
       </c>
       <c r="D20">
-        <v>0.07103187495249397</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07858812350934054</v>
+      </c>
+      <c r="E20">
+        <v>-0.0577673345123518</v>
+      </c>
+      <c r="F20">
+        <v>-0.02928527512304268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04003062712396585</v>
+        <v>0.04143113265162379</v>
       </c>
       <c r="C21">
-        <v>-0.009617949804561295</v>
+        <v>-0.006753185205959636</v>
       </c>
       <c r="D21">
-        <v>0.03391343045235801</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03617680262770216</v>
+      </c>
+      <c r="E21">
+        <v>0.001752114944040506</v>
+      </c>
+      <c r="F21">
+        <v>0.0251078065617923</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04051448161686371</v>
+        <v>0.04407109693610707</v>
       </c>
       <c r="C22">
-        <v>-0.001696724800680843</v>
+        <v>-0.001056357996573306</v>
       </c>
       <c r="D22">
-        <v>0.001101224822039777</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.006904104524660215</v>
+      </c>
+      <c r="E22">
+        <v>-0.03733590069421007</v>
+      </c>
+      <c r="F22">
+        <v>0.04652373817725181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04047679418459336</v>
+        <v>0.04404661571342228</v>
       </c>
       <c r="C23">
-        <v>-0.001685849519846525</v>
+        <v>-0.001047039562178758</v>
       </c>
       <c r="D23">
-        <v>0.001125885676242948</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.006918235944742777</v>
+      </c>
+      <c r="E23">
+        <v>-0.03751865078763868</v>
+      </c>
+      <c r="F23">
+        <v>0.0464963501896428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08231929818193316</v>
+        <v>0.07844238695535077</v>
       </c>
       <c r="C24">
-        <v>-0.008152588172674854</v>
+        <v>-0.002724024030996039</v>
       </c>
       <c r="D24">
-        <v>0.1140248584651996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1199734239714902</v>
+      </c>
+      <c r="E24">
+        <v>-0.04961264372737494</v>
+      </c>
+      <c r="F24">
+        <v>-0.03013913496559046</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08721908235410525</v>
+        <v>0.08382623795356893</v>
       </c>
       <c r="C25">
-        <v>-0.01042480091586148</v>
+        <v>-0.005552533363473708</v>
       </c>
       <c r="D25">
-        <v>0.1017772927804002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1092087753802228</v>
+      </c>
+      <c r="E25">
+        <v>-0.03306914470720295</v>
+      </c>
+      <c r="F25">
+        <v>-0.02771653271053989</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05755756550343968</v>
+        <v>0.05981766668312157</v>
       </c>
       <c r="C26">
-        <v>-0.01795345667104526</v>
+        <v>-0.01471220768491818</v>
       </c>
       <c r="D26">
-        <v>0.03194294452999241</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04336754971615836</v>
+      </c>
+      <c r="E26">
+        <v>-0.02913742747432399</v>
+      </c>
+      <c r="F26">
+        <v>0.008121792274111184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1330604868285204</v>
+        <v>0.141760828966849</v>
       </c>
       <c r="C28">
-        <v>-0.01468248815936673</v>
+        <v>-0.02335345850633254</v>
       </c>
       <c r="D28">
-        <v>-0.2669266396066245</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2606645372704149</v>
+      </c>
+      <c r="E28">
+        <v>0.06869209044765448</v>
+      </c>
+      <c r="F28">
+        <v>-0.004434435108148838</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.0259852711419794</v>
+        <v>0.02892966344605204</v>
       </c>
       <c r="C29">
-        <v>-0.009797733149990712</v>
+        <v>-0.009109420790206652</v>
       </c>
       <c r="D29">
-        <v>0.02876145686062161</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02989746910402694</v>
+      </c>
+      <c r="E29">
+        <v>-0.01324116130538609</v>
+      </c>
+      <c r="F29">
+        <v>0.01370665218817573</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.06057386895629554</v>
+        <v>0.05764399625044914</v>
       </c>
       <c r="C30">
-        <v>-0.00811411866913608</v>
+        <v>-0.002793754756023689</v>
       </c>
       <c r="D30">
-        <v>0.07828835650058458</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08761327018360152</v>
+      </c>
+      <c r="E30">
+        <v>-0.01376984112884582</v>
+      </c>
+      <c r="F30">
+        <v>-0.0787576785058911</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05112268195129111</v>
+        <v>0.05163892282843534</v>
       </c>
       <c r="C31">
-        <v>-0.01747819704534659</v>
+        <v>-0.01636997238668134</v>
       </c>
       <c r="D31">
-        <v>0.02183489287454253</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02420480579479958</v>
+      </c>
+      <c r="E31">
+        <v>-0.02861306897094324</v>
+      </c>
+      <c r="F31">
+        <v>0.0004198427636429389</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04862710199890651</v>
+        <v>0.05219911164087097</v>
       </c>
       <c r="C32">
-        <v>-0.002116627049639648</v>
+        <v>0.001255475081808335</v>
       </c>
       <c r="D32">
-        <v>0.02982030338835519</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03396521041601027</v>
+      </c>
+      <c r="E32">
+        <v>-0.03332072766270486</v>
+      </c>
+      <c r="F32">
+        <v>-0.002953743464568835</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09016992470070867</v>
+        <v>0.089276814359718</v>
       </c>
       <c r="C33">
-        <v>-0.01311583120719944</v>
+        <v>-0.007446313743453948</v>
       </c>
       <c r="D33">
-        <v>0.08873543977991384</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1032408535446307</v>
+      </c>
+      <c r="E33">
+        <v>-0.04670813472463075</v>
+      </c>
+      <c r="F33">
+        <v>-0.0429557141140967</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06922324914594417</v>
+        <v>0.06743559005948213</v>
       </c>
       <c r="C34">
-        <v>-0.01554834724990437</v>
+        <v>-0.01087388596152788</v>
       </c>
       <c r="D34">
-        <v>0.09570857392391931</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1083134113544492</v>
+      </c>
+      <c r="E34">
+        <v>-0.03533710433665108</v>
+      </c>
+      <c r="F34">
+        <v>-0.03504385050443675</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02548130021835084</v>
+        <v>0.02684082873047354</v>
       </c>
       <c r="C35">
-        <v>-0.003850344172659145</v>
+        <v>-0.003253876879221328</v>
       </c>
       <c r="D35">
-        <v>0.007513815017922468</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01198151187622191</v>
+      </c>
+      <c r="E35">
+        <v>-0.01275902493099164</v>
+      </c>
+      <c r="F35">
+        <v>-0.0007468880312336629</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02480793072711662</v>
+        <v>0.02828917794771209</v>
       </c>
       <c r="C36">
-        <v>-0.008031287028248117</v>
+        <v>-0.007058068871433046</v>
       </c>
       <c r="D36">
-        <v>0.03894339797776838</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.0390915186668597</v>
+      </c>
+      <c r="E36">
+        <v>-0.01758970066446518</v>
+      </c>
+      <c r="F36">
+        <v>-0.0135720066921866</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.001499204399643337</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0008247549801649444</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002991098682650512</v>
+      </c>
+      <c r="E37">
+        <v>-0.0001066494798419791</v>
+      </c>
+      <c r="F37">
+        <v>0.001741916108602105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1115230002562264</v>
+        <v>0.1006071419015845</v>
       </c>
       <c r="C39">
-        <v>-0.02298499026763481</v>
+        <v>-0.01660274973369797</v>
       </c>
       <c r="D39">
-        <v>0.1463988008139963</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1504817161611053</v>
+      </c>
+      <c r="E39">
+        <v>-0.05885035506969374</v>
+      </c>
+      <c r="F39">
+        <v>-0.02159919241030844</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.03854994347077034</v>
+        <v>0.04375955148674904</v>
       </c>
       <c r="C40">
-        <v>-0.009368923634364819</v>
+        <v>-0.007942476818871697</v>
       </c>
       <c r="D40">
-        <v>0.02347634842862012</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03254663230486367</v>
+      </c>
+      <c r="E40">
+        <v>-0.00200264249282752</v>
+      </c>
+      <c r="F40">
+        <v>0.01548461621999569</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02505428450518414</v>
+        <v>0.02700381586150493</v>
       </c>
       <c r="C41">
-        <v>-0.007367716187401652</v>
+        <v>-0.006899628387314172</v>
       </c>
       <c r="D41">
-        <v>0.008554066589960916</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01050297830537833</v>
+      </c>
+      <c r="E41">
+        <v>-0.01164555136822757</v>
+      </c>
+      <c r="F41">
+        <v>0.007234055305193601</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04225932131700082</v>
+        <v>0.04030892398177138</v>
       </c>
       <c r="C43">
-        <v>-0.008524026900818228</v>
+        <v>-0.007887954170930352</v>
       </c>
       <c r="D43">
-        <v>0.01676299404593854</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01904728641730929</v>
+      </c>
+      <c r="E43">
+        <v>-0.0256643353786274</v>
+      </c>
+      <c r="F43">
+        <v>0.01615710682955675</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06889006453897546</v>
+        <v>0.07777455250259384</v>
       </c>
       <c r="C44">
-        <v>-0.02441337526505154</v>
+        <v>-0.01990750250564345</v>
       </c>
       <c r="D44">
-        <v>0.09535482160905434</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09654251428823826</v>
+      </c>
+      <c r="E44">
+        <v>-0.06228791707882813</v>
+      </c>
+      <c r="F44">
+        <v>-0.1678482533473435</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02125014688112968</v>
+        <v>0.02450679220633632</v>
       </c>
       <c r="C46">
-        <v>-0.004529193685105636</v>
+        <v>-0.003716010500235826</v>
       </c>
       <c r="D46">
-        <v>0.009375506727853958</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01258696019562047</v>
+      </c>
+      <c r="E46">
+        <v>-0.02673150914757396</v>
+      </c>
+      <c r="F46">
+        <v>0.005518431968829268</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05287885160949613</v>
+        <v>0.05235557039733751</v>
       </c>
       <c r="C47">
-        <v>-0.005329501417045202</v>
+        <v>-0.004681259491931172</v>
       </c>
       <c r="D47">
-        <v>0.006866434033597002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01056981182698336</v>
+      </c>
+      <c r="E47">
+        <v>-0.02306016897230409</v>
+      </c>
+      <c r="F47">
+        <v>0.03197422429223681</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04859104408402561</v>
+        <v>0.05130585699614261</v>
       </c>
       <c r="C48">
-        <v>-0.005084282020634331</v>
+        <v>-0.002562281957228544</v>
       </c>
       <c r="D48">
-        <v>0.04674922289980809</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04997463163232109</v>
+      </c>
+      <c r="E48">
+        <v>0.004303469872175044</v>
+      </c>
+      <c r="F48">
+        <v>-0.012439580061682</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1992913668607719</v>
+        <v>0.2005370466585931</v>
       </c>
       <c r="C49">
-        <v>-0.02286974642325537</v>
+        <v>-0.02139926951005098</v>
       </c>
       <c r="D49">
-        <v>-0.013972528486577</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.004969935067908919</v>
+      </c>
+      <c r="E49">
+        <v>-0.03426575898561346</v>
+      </c>
+      <c r="F49">
+        <v>-0.04870383500267748</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04912862055979721</v>
+        <v>0.05136761659542235</v>
       </c>
       <c r="C50">
-        <v>-0.0130945715983709</v>
+        <v>-0.01189320192841546</v>
       </c>
       <c r="D50">
-        <v>0.02102272663992317</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02323618161266267</v>
+      </c>
+      <c r="E50">
+        <v>-0.02978144012787372</v>
+      </c>
+      <c r="F50">
+        <v>-0.009318764752036799</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1553917198826364</v>
+        <v>0.1486207714963543</v>
       </c>
       <c r="C52">
-        <v>-0.02126613882016658</v>
+        <v>-0.01953945841605329</v>
       </c>
       <c r="D52">
-        <v>0.04248243751488051</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04253072825119715</v>
+      </c>
+      <c r="E52">
+        <v>-0.02311428106737157</v>
+      </c>
+      <c r="F52">
+        <v>-0.04168363998787827</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1742258229832559</v>
+        <v>0.1689267564581322</v>
       </c>
       <c r="C53">
-        <v>-0.02214241016003992</v>
+        <v>-0.02253184461204862</v>
       </c>
       <c r="D53">
-        <v>0.007519371694770932</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.00591432615369026</v>
+      </c>
+      <c r="E53">
+        <v>-0.03097610793410187</v>
+      </c>
+      <c r="F53">
+        <v>-0.0747135475843345</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01818588152577245</v>
+        <v>0.01997543193517378</v>
       </c>
       <c r="C54">
-        <v>-0.01234401265528137</v>
+        <v>-0.01104625580795039</v>
       </c>
       <c r="D54">
-        <v>0.03040708338252064</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03159861352528515</v>
+      </c>
+      <c r="E54">
+        <v>-0.02050040343042835</v>
+      </c>
+      <c r="F54">
+        <v>0.002084783460959352</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1180349070046115</v>
+        <v>0.1164736948024717</v>
       </c>
       <c r="C55">
-        <v>-0.01954442732049554</v>
+        <v>-0.01969561118616012</v>
       </c>
       <c r="D55">
-        <v>0.00499170393365748</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.007927811660091325</v>
+      </c>
+      <c r="E55">
+        <v>-0.02661401280806704</v>
+      </c>
+      <c r="F55">
+        <v>-0.04647611812704214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1804841779629985</v>
+        <v>0.1757031579743102</v>
       </c>
       <c r="C56">
-        <v>-0.02013550998099123</v>
+        <v>-0.02069434444317329</v>
       </c>
       <c r="D56">
-        <v>-0.006333769195987983</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.003175171396387311</v>
+      </c>
+      <c r="E56">
+        <v>-0.03313196030349878</v>
+      </c>
+      <c r="F56">
+        <v>-0.05481759030897747</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04814427548939126</v>
+        <v>0.04637367651958448</v>
       </c>
       <c r="C58">
-        <v>-0.005075118516831846</v>
+        <v>-0.0004533209568170697</v>
       </c>
       <c r="D58">
-        <v>0.06660414487581623</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07641356344367135</v>
+      </c>
+      <c r="E58">
+        <v>-0.03712173328669904</v>
+      </c>
+      <c r="F58">
+        <v>0.03811079955436741</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1601457945895443</v>
+        <v>0.166639202341703</v>
       </c>
       <c r="C59">
-        <v>-0.01649849239525279</v>
+        <v>-0.02380387558843769</v>
       </c>
       <c r="D59">
-        <v>-0.2275931200634645</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2185385756923182</v>
+      </c>
+      <c r="E59">
+        <v>0.05059858767651539</v>
+      </c>
+      <c r="F59">
+        <v>0.03807908548720013</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2388494105191007</v>
+        <v>0.2303371940389</v>
       </c>
       <c r="C60">
-        <v>-0.004148149024261902</v>
+        <v>-0.001408468489292215</v>
       </c>
       <c r="D60">
-        <v>0.03644877427342864</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03909407630574208</v>
+      </c>
+      <c r="E60">
+        <v>-0.007066875858709695</v>
+      </c>
+      <c r="F60">
+        <v>-0.005942113041299932</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.08250743025872016</v>
+        <v>0.07574096216760279</v>
       </c>
       <c r="C61">
-        <v>-0.01691204932406193</v>
+        <v>-0.01153087075165034</v>
       </c>
       <c r="D61">
-        <v>0.1082552250996859</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1152295333441071</v>
+      </c>
+      <c r="E61">
+        <v>-0.03660100918986893</v>
+      </c>
+      <c r="F61">
+        <v>-0.008344825658958143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1725644831117441</v>
+        <v>0.1690763577809025</v>
       </c>
       <c r="C62">
-        <v>-0.0239928763583809</v>
+        <v>-0.02351000033586658</v>
       </c>
       <c r="D62">
-        <v>0.0003792464898876035</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005939639044400816</v>
+      </c>
+      <c r="E62">
+        <v>-0.03506926565351993</v>
+      </c>
+      <c r="F62">
+        <v>-0.0409120882376994</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04134832839224106</v>
+        <v>0.04555225969056421</v>
       </c>
       <c r="C63">
-        <v>-0.005330369491981165</v>
+        <v>-0.001940821212769569</v>
       </c>
       <c r="D63">
-        <v>0.04806357136626811</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05968549527397145</v>
+      </c>
+      <c r="E63">
+        <v>-0.02366427832681534</v>
+      </c>
+      <c r="F63">
+        <v>-0.0004788269193308805</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.113513058295064</v>
+        <v>0.111116290271819</v>
       </c>
       <c r="C64">
-        <v>-0.016259577819579</v>
+        <v>-0.01336192765880918</v>
       </c>
       <c r="D64">
-        <v>0.03368813321207033</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04205713510404299</v>
+      </c>
+      <c r="E64">
+        <v>-0.02421387740401543</v>
+      </c>
+      <c r="F64">
+        <v>-0.0262535382774735</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1451118855450433</v>
+        <v>0.1520709155478399</v>
       </c>
       <c r="C65">
-        <v>-0.03615999191243113</v>
+        <v>-0.03640665599657073</v>
       </c>
       <c r="D65">
-        <v>-0.05776331180037528</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04582257183563899</v>
+      </c>
+      <c r="E65">
+        <v>-0.008728162866580369</v>
+      </c>
+      <c r="F65">
+        <v>-0.03711492162994013</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1338899614188539</v>
+        <v>0.1203703589138158</v>
       </c>
       <c r="C66">
-        <v>-0.02145128516756206</v>
+        <v>-0.01494308166796639</v>
       </c>
       <c r="D66">
-        <v>0.1289525945979718</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1396702311415912</v>
+      </c>
+      <c r="E66">
+        <v>-0.06373107088390542</v>
+      </c>
+      <c r="F66">
+        <v>-0.0267083572850083</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06358769048085655</v>
+        <v>0.05634497917743128</v>
       </c>
       <c r="C67">
-        <v>-0.006094180988512297</v>
+        <v>-0.003941092718091431</v>
       </c>
       <c r="D67">
-        <v>0.05336308450521624</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05745129313080428</v>
+      </c>
+      <c r="E67">
+        <v>-0.01944397019723406</v>
+      </c>
+      <c r="F67">
+        <v>0.03409320558078425</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1061366296670413</v>
+        <v>0.1164138187651121</v>
       </c>
       <c r="C68">
-        <v>-0.02469612919581553</v>
+        <v>-0.03406910376317196</v>
       </c>
       <c r="D68">
-        <v>-0.2640925894404952</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2610320628250825</v>
+      </c>
+      <c r="E68">
+        <v>0.08931354367807952</v>
+      </c>
+      <c r="F68">
+        <v>-0.0008718102740524281</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03914660138095225</v>
+        <v>0.03803297701291321</v>
       </c>
       <c r="C69">
-        <v>-0.002262589464544213</v>
+        <v>-0.001403266302351359</v>
       </c>
       <c r="D69">
-        <v>0.006715974932633238</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008355514712484705</v>
+      </c>
+      <c r="E69">
+        <v>-0.0238841412005922</v>
+      </c>
+      <c r="F69">
+        <v>8.772386103308245e-05</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06600645298184982</v>
+        <v>0.06696807613904465</v>
       </c>
       <c r="C70">
-        <v>0.02427618946512455</v>
+        <v>0.0264799052165254</v>
       </c>
       <c r="D70">
-        <v>0.02062510333221822</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02540658827925448</v>
+      </c>
+      <c r="E70">
+        <v>0.03130119681622421</v>
+      </c>
+      <c r="F70">
+        <v>0.1810238213645583</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1250246512686424</v>
+        <v>0.1365468352196441</v>
       </c>
       <c r="C71">
-        <v>-0.02935538098032262</v>
+        <v>-0.03881240394159575</v>
       </c>
       <c r="D71">
-        <v>-0.2810271930581653</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2710465090082664</v>
+      </c>
+      <c r="E71">
+        <v>0.09837061278270236</v>
+      </c>
+      <c r="F71">
+        <v>-0.006574900334512796</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1373536889127123</v>
+        <v>0.14367453566401</v>
       </c>
       <c r="C72">
-        <v>-0.02864358122269987</v>
+        <v>-0.02906365575907511</v>
       </c>
       <c r="D72">
-        <v>0.001226190274534585</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.003826636048709584</v>
+      </c>
+      <c r="E72">
+        <v>-0.03900949981627666</v>
+      </c>
+      <c r="F72">
+        <v>-0.02688674951717068</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2043556495563451</v>
+        <v>0.2042054068171625</v>
       </c>
       <c r="C73">
-        <v>-0.01802270341301761</v>
+        <v>-0.01453470195857096</v>
       </c>
       <c r="D73">
-        <v>0.00673446062808787</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01764228119702405</v>
+      </c>
+      <c r="E73">
+        <v>-0.06759021603448473</v>
+      </c>
+      <c r="F73">
+        <v>-0.04429389990630769</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.09210556802457188</v>
+        <v>0.09333496597267563</v>
       </c>
       <c r="C74">
-        <v>-0.01477955952235315</v>
+        <v>-0.01435663141454976</v>
       </c>
       <c r="D74">
-        <v>0.01540118304941577</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01715136402220068</v>
+      </c>
+      <c r="E74">
+        <v>-0.04407366807880542</v>
+      </c>
+      <c r="F74">
+        <v>-0.0523471930780369</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.133871962967843</v>
+        <v>0.1263294504481085</v>
       </c>
       <c r="C75">
-        <v>-0.03186732221771531</v>
+        <v>-0.03038473493998103</v>
       </c>
       <c r="D75">
-        <v>0.0232562064801034</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02885976580348953</v>
+      </c>
+      <c r="E75">
+        <v>-0.05744169562897489</v>
+      </c>
+      <c r="F75">
+        <v>-0.02142004790114203</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08189890104344828</v>
+        <v>0.09176974229437393</v>
       </c>
       <c r="C77">
-        <v>-0.01407582214759401</v>
+        <v>-0.008946463648896669</v>
       </c>
       <c r="D77">
-        <v>0.1122659465311148</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1157587794816115</v>
+      </c>
+      <c r="E77">
+        <v>-0.04774189911705036</v>
+      </c>
+      <c r="F77">
+        <v>-0.0348719972709669</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1001661790267044</v>
+        <v>0.1007042606273125</v>
       </c>
       <c r="C78">
-        <v>-0.04393511358675898</v>
+        <v>-0.03968845328727468</v>
       </c>
       <c r="D78">
-        <v>0.1098242133352116</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1100866135534249</v>
+      </c>
+      <c r="E78">
+        <v>-0.07587820686127431</v>
+      </c>
+      <c r="F78">
+        <v>-0.05390848097453138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1662216234706042</v>
+        <v>0.1631750250395977</v>
       </c>
       <c r="C79">
-        <v>-0.02673692467066767</v>
+        <v>-0.02577097353727855</v>
       </c>
       <c r="D79">
-        <v>0.006957867145828097</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01185910684645893</v>
+      </c>
+      <c r="E79">
+        <v>-0.04443426390584599</v>
+      </c>
+      <c r="F79">
+        <v>-0.0125914726687289</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08159536814097187</v>
+        <v>0.08009947352364402</v>
       </c>
       <c r="C80">
-        <v>-0.002463043711767842</v>
+        <v>-1.643246356746639e-05</v>
       </c>
       <c r="D80">
-        <v>0.05168867003732301</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05349780142311707</v>
+      </c>
+      <c r="E80">
+        <v>-0.03349082225542058</v>
+      </c>
+      <c r="F80">
+        <v>0.02639162103113752</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1212032865152327</v>
+        <v>0.1166480197544936</v>
       </c>
       <c r="C81">
-        <v>-0.03397666555270597</v>
+        <v>-0.03380064221748014</v>
       </c>
       <c r="D81">
-        <v>0.008430107990501551</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01253587186127733</v>
+      </c>
+      <c r="E81">
+        <v>-0.05445696007944766</v>
+      </c>
+      <c r="F81">
+        <v>-0.01775606397433434</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1660354722033651</v>
+        <v>0.1649939154793213</v>
       </c>
       <c r="C82">
-        <v>-0.02736181108288534</v>
+        <v>-0.02806312420405601</v>
       </c>
       <c r="D82">
-        <v>0.005148853272148817</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.0029195452963814</v>
+      </c>
+      <c r="E82">
+        <v>-0.02901407247437023</v>
+      </c>
+      <c r="F82">
+        <v>-0.08228662175783906</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06363083600273639</v>
+        <v>0.05748149797511203</v>
       </c>
       <c r="C83">
-        <v>-0.005947578915199912</v>
+        <v>-0.003709281973844789</v>
       </c>
       <c r="D83">
-        <v>0.04538950203742029</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04778833433898884</v>
+      </c>
+      <c r="E83">
+        <v>-0.001504365446663782</v>
+      </c>
+      <c r="F83">
+        <v>0.0368949997961685</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06170779562015686</v>
+        <v>0.05583698135072653</v>
       </c>
       <c r="C84">
-        <v>-0.01368197075444451</v>
+        <v>-0.01110803416215586</v>
       </c>
       <c r="D84">
-        <v>0.06901719917623055</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07191615973351546</v>
+      </c>
+      <c r="E84">
+        <v>-0.01347506508869943</v>
+      </c>
+      <c r="F84">
+        <v>-0.01567366685678209</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1393040588496108</v>
+        <v>0.1347016778226229</v>
       </c>
       <c r="C85">
-        <v>-0.03071857861328164</v>
+        <v>-0.03045887498374047</v>
       </c>
       <c r="D85">
-        <v>0.007592208201813533</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009434969432100454</v>
+      </c>
+      <c r="E85">
+        <v>-0.03703484252995751</v>
+      </c>
+      <c r="F85">
+        <v>-0.04747940550694667</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.101523064473688</v>
+        <v>0.09304478162997733</v>
       </c>
       <c r="C86">
-        <v>0.002608466098935133</v>
+        <v>0.005124225463827336</v>
       </c>
       <c r="D86">
-        <v>0.01391196853931132</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0508887024307761</v>
+      </c>
+      <c r="E86">
+        <v>-0.2216252593009189</v>
+      </c>
+      <c r="F86">
+        <v>0.8992670308831462</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.09651163813839246</v>
+        <v>0.09260914682555735</v>
       </c>
       <c r="C87">
-        <v>-0.0283505719434085</v>
+        <v>-0.02023046999942617</v>
       </c>
       <c r="D87">
-        <v>0.07384462867135667</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09546361067796826</v>
+      </c>
+      <c r="E87">
+        <v>0.05174196749504003</v>
+      </c>
+      <c r="F87">
+        <v>-0.04948676036783565</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06254116718821666</v>
+        <v>0.06111185900983535</v>
       </c>
       <c r="C88">
-        <v>-0.005560724154543926</v>
+        <v>-0.002912292642209192</v>
       </c>
       <c r="D88">
-        <v>0.04994619729790871</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04982716209675619</v>
+      </c>
+      <c r="E88">
+        <v>-0.02474187436597735</v>
+      </c>
+      <c r="F88">
+        <v>-0.01397548444467007</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1166404219509887</v>
+        <v>0.1263410710212626</v>
       </c>
       <c r="C89">
-        <v>-0.005815142704467091</v>
+        <v>-0.01418245323090906</v>
       </c>
       <c r="D89">
-        <v>-0.2443453214580334</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2432137920864036</v>
+      </c>
+      <c r="E89">
+        <v>0.09246184403705318</v>
+      </c>
+      <c r="F89">
+        <v>0.007470355690666119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.137678383293315</v>
+        <v>0.1517136582918935</v>
       </c>
       <c r="C90">
-        <v>-0.02570268053213746</v>
+        <v>-0.03552320545141948</v>
       </c>
       <c r="D90">
-        <v>-0.2675445730211115</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2682826803210462</v>
+      </c>
+      <c r="E90">
+        <v>0.1143047473816036</v>
+      </c>
+      <c r="F90">
+        <v>0.008432726290821355</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1213726189697985</v>
+        <v>0.1201147001821133</v>
       </c>
       <c r="C91">
-        <v>-0.02142634814704038</v>
+        <v>-0.02193236821124633</v>
       </c>
       <c r="D91">
-        <v>-0.0193503231489844</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01704430703062053</v>
+      </c>
+      <c r="E91">
+        <v>-0.05403812848825099</v>
+      </c>
+      <c r="F91">
+        <v>0.001949106203397364</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1370625817298574</v>
+        <v>0.144617311866664</v>
       </c>
       <c r="C92">
-        <v>-0.01636184654269411</v>
+        <v>-0.0264336525019279</v>
       </c>
       <c r="D92">
-        <v>-0.3001221476999657</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2948995902724209</v>
+      </c>
+      <c r="E92">
+        <v>0.1051813481768233</v>
+      </c>
+      <c r="F92">
+        <v>0.01711074874679174</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1403598640968607</v>
+        <v>0.1527561425318698</v>
       </c>
       <c r="C93">
-        <v>-0.02186351067888918</v>
+        <v>-0.03069695931458134</v>
       </c>
       <c r="D93">
-        <v>-0.267323025891249</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2648635286105879</v>
+      </c>
+      <c r="E93">
+        <v>0.07721182308388287</v>
+      </c>
+      <c r="F93">
+        <v>-0.002603230631738348</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1338594060035166</v>
+        <v>0.1260576186511383</v>
       </c>
       <c r="C94">
-        <v>-0.02826221740895502</v>
+        <v>-0.02635129542107494</v>
       </c>
       <c r="D94">
-        <v>0.0384353182691281</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04055029228183464</v>
+      </c>
+      <c r="E94">
+        <v>-0.05758293443906649</v>
+      </c>
+      <c r="F94">
+        <v>-0.03147541623107256</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1262878081733092</v>
+        <v>0.1293649722290229</v>
       </c>
       <c r="C95">
-        <v>-0.01028824273881106</v>
+        <v>-0.005190841388822611</v>
       </c>
       <c r="D95">
-        <v>0.08634451928366937</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09684796702256886</v>
+      </c>
+      <c r="E95">
+        <v>-0.05602717485212645</v>
+      </c>
+      <c r="F95">
+        <v>-0.001860136058515002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1275880905705155</v>
+        <v>0.122163863354221</v>
       </c>
       <c r="C96">
-        <v>0.9861519217753039</v>
+        <v>0.9857628768641139</v>
       </c>
       <c r="D96">
-        <v>-0.0185835168086215</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05059194827397825</v>
+      </c>
+      <c r="E96">
+        <v>-0.05121978587626593</v>
+      </c>
+      <c r="F96">
+        <v>-0.0421079890346825</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1956492454829322</v>
+        <v>0.1973413016449125</v>
       </c>
       <c r="C97">
-        <v>0.002880038109435343</v>
+        <v>0.003457960967910251</v>
       </c>
       <c r="D97">
-        <v>-0.02201231609648646</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02222700021540614</v>
+      </c>
+      <c r="E97">
+        <v>-0.02417204977125242</v>
+      </c>
+      <c r="F97">
+        <v>0.1202158048180135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2004482881353872</v>
+        <v>0.2068097790846584</v>
       </c>
       <c r="C98">
-        <v>-0.01287038630364792</v>
+        <v>-0.009329108810344378</v>
       </c>
       <c r="D98">
-        <v>0.01137666681488833</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01333061033970061</v>
+      </c>
+      <c r="E98">
+        <v>0.0749481524307495</v>
+      </c>
+      <c r="F98">
+        <v>0.09016312917479949</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05576175852517821</v>
+        <v>0.0554155964265049</v>
       </c>
       <c r="C99">
-        <v>0.001601776828762587</v>
+        <v>0.003632299943118322</v>
       </c>
       <c r="D99">
-        <v>0.0306778899499478</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03884492273662275</v>
+      </c>
+      <c r="E99">
+        <v>-0.02218014864759051</v>
+      </c>
+      <c r="F99">
+        <v>-0.003105094504249155</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1478143179749687</v>
+        <v>0.1329411175200814</v>
       </c>
       <c r="C100">
-        <v>0.03687084107250187</v>
+        <v>0.04914136411552623</v>
       </c>
       <c r="D100">
-        <v>0.3903571035618612</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3553508707555246</v>
+      </c>
+      <c r="E100">
+        <v>0.8844648131423308</v>
+      </c>
+      <c r="F100">
+        <v>0.1475500248813205</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02600071276799678</v>
+        <v>0.02898590874674778</v>
       </c>
       <c r="C101">
-        <v>-0.009819738845939686</v>
+        <v>-0.009140410648149756</v>
       </c>
       <c r="D101">
-        <v>0.02840132415110657</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02952904549956458</v>
+      </c>
+      <c r="E101">
+        <v>-0.01271033985807967</v>
+      </c>
+      <c r="F101">
+        <v>0.01505964809638864</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
